--- a/data/vgp_database/Central_Mexico_Plio-Pleistocene.xlsx
+++ b/data/vgp_database/Central_Mexico_Plio-Pleistocene.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCD9CB8-587A-444F-AB14-2419E2499525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C54731-FB2C-CD4B-A1AD-E17BBD27502B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5920" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="82">
   <si>
     <t>Name:</t>
   </si>
@@ -282,51 +282,6 @@
   </si>
   <si>
     <t>10.1029/2004GC000871</t>
-  </si>
-  <si>
-    <t>10.1029/2004GC000872</t>
-  </si>
-  <si>
-    <t>10.1029/2004GC000873</t>
-  </si>
-  <si>
-    <t>10.1029/2004GC000874</t>
-  </si>
-  <si>
-    <t>10.1029/2004GC000875</t>
-  </si>
-  <si>
-    <t>10.1029/2004GC000876</t>
-  </si>
-  <si>
-    <t>10.1029/2004GC000877</t>
-  </si>
-  <si>
-    <t>10.1029/2004GC000878</t>
-  </si>
-  <si>
-    <t>10.1029/2004GC000879</t>
-  </si>
-  <si>
-    <t>10.1029/2004GC000880</t>
-  </si>
-  <si>
-    <t>10.1029/2004GC000881</t>
-  </si>
-  <si>
-    <t>10.1029/2004GC000882</t>
-  </si>
-  <si>
-    <t>10.1029/2004GC000883</t>
-  </si>
-  <si>
-    <t>10.1029/2004GC000884</t>
-  </si>
-  <si>
-    <t>10.1029/2004GC000885</t>
-  </si>
-  <si>
-    <t>10.1029/2004GC000886</t>
   </si>
 </sst>
 </file>
@@ -710,7 +665,7 @@
   <dimension ref="A1:AQ786"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AP9" sqref="AP9:AP24"/>
+      <selection activeCell="AP10" sqref="AP10:AP24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1556,8 +1511,9 @@
       <c r="AO10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AP10" s="24" t="s">
-        <v>82</v>
+      <c r="AP10" s="24" t="str">
+        <f>AP9</f>
+        <v>10.1029/2004GC000871</v>
       </c>
     </row>
     <row r="11" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -1664,8 +1620,9 @@
       <c r="AO11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AP11" s="24" t="s">
-        <v>83</v>
+      <c r="AP11" s="24" t="str">
+        <f t="shared" ref="AP11:AP24" si="0">AP10</f>
+        <v>10.1029/2004GC000871</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -1774,8 +1731,9 @@
       </c>
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
-      <c r="AP12" s="24" t="s">
-        <v>84</v>
+      <c r="AP12" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2004GC000871</v>
       </c>
     </row>
     <row r="13" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -1884,8 +1842,9 @@
       <c r="AO13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AP13" s="24" t="s">
-        <v>85</v>
+      <c r="AP13" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2004GC000871</v>
       </c>
     </row>
     <row r="14" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -1994,8 +1953,9 @@
       </c>
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
-      <c r="AP14" s="24" t="s">
-        <v>86</v>
+      <c r="AP14" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2004GC000871</v>
       </c>
     </row>
     <row r="15" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2106,8 +2066,9 @@
       <c r="AO15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AP15" s="24" t="s">
-        <v>87</v>
+      <c r="AP15" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2004GC000871</v>
       </c>
     </row>
     <row r="16" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2218,8 +2179,9 @@
       <c r="AO16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AP16" s="24" t="s">
-        <v>88</v>
+      <c r="AP16" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2004GC000871</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2328,8 +2290,9 @@
       </c>
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
-      <c r="AP17" s="24" t="s">
-        <v>89</v>
+      <c r="AP17" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2004GC000871</v>
       </c>
     </row>
     <row r="18" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2438,8 +2401,9 @@
       </c>
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
-      <c r="AP18" s="24" t="s">
-        <v>90</v>
+      <c r="AP18" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2004GC000871</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2550,8 +2514,9 @@
       <c r="AO19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AP19" s="24" t="s">
-        <v>91</v>
+      <c r="AP19" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2004GC000871</v>
       </c>
     </row>
     <row r="20" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2662,8 +2627,9 @@
       <c r="AO20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AP20" s="24" t="s">
-        <v>92</v>
+      <c r="AP20" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2004GC000871</v>
       </c>
     </row>
     <row r="21" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2766,8 +2732,9 @@
       <c r="AO21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AP21" s="24" t="s">
-        <v>93</v>
+      <c r="AP21" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2004GC000871</v>
       </c>
     </row>
     <row r="22" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2876,8 +2843,9 @@
       </c>
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
-      <c r="AP22" s="24" t="s">
-        <v>94</v>
+      <c r="AP22" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2004GC000871</v>
       </c>
     </row>
     <row r="23" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2986,8 +2954,9 @@
       </c>
       <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
-      <c r="AP23" s="24" t="s">
-        <v>95</v>
+      <c r="AP23" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2004GC000871</v>
       </c>
     </row>
     <row r="24" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -3096,8 +3065,9 @@
       </c>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
-      <c r="AP24" s="24" t="s">
-        <v>96</v>
+      <c r="AP24" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2004GC000871</v>
       </c>
     </row>
     <row r="25" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -37062,7 +37032,6 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="AP9" r:id="rId1" display="https://doi.org/10.1029/2004GC000871" xr:uid="{CCFFA48C-7EB7-8F4F-A8BD-75594D1B9376}"/>
-    <hyperlink ref="AP10:AP24" r:id="rId2" display="https://doi.org/10.1029/2004GC000871" xr:uid="{0FF7C02A-EAD9-3447-9246-7C9DA57C5E0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
